--- a/biology/Botanique/Route_du_vin_en_Roussillon/Route_du_vin_en_Roussillon.xlsx
+++ b/biology/Botanique/Route_du_vin_en_Roussillon/Route_du_vin_en_Roussillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous la dénomination route du vin en Roussillon, en 2018, il existe trois routes des vins à flanc d'Est des Pyrénées (terrasses proches du littoral), mais à proximité des principaux fleuves de la région, et qui se trouvent dans la moitié Est du département des Pyrénées-Orientales, à savoir du Nord au Sud :
-l'Agly[1] (dans les régions ou « Pays » suivants : Salanque, Fenouillèdes et les confins du Conflent et du Ribéral)
-la Têt[2] (dans les régions ou « Pays » suivants : Roussillon et les confins du Ribéral)
-le Tech (dans les régions ou « Pays » suivants : Aspres[2], Albères[3] et le long de la Côte Vermeille).
+l'Agly (dans les régions ou « Pays » suivants : Salanque, Fenouillèdes et les confins du Conflent et du Ribéral)
+la Têt (dans les régions ou « Pays » suivants : Roussillon et les confins du Ribéral)
+le Tech (dans les régions ou « Pays » suivants : Aspres, Albères et le long de la Côte Vermeille).
 </t>
         </is>
       </c>
@@ -516,8 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Route du vin en Agly
-La route du vin en Agly parcourt les principaux villages et villes viticoles de la région[1]. Dans un circuit, dans le sens des aiguilles d'une montre, elle traverse les communes suivantes :
+          <t>Route du vin en Agly</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La route du vin en Agly parcourt les principaux villages et villes viticoles de la région. Dans un circuit, dans le sens des aiguilles d'une montre, elle traverse les communes suivantes :
 Rivesaltes ;
 Peyrestortes ;
 Baixas ;
@@ -547,8 +564,43 @@
 Vingrau ;
 Opoul-Périllos ;
 …
-Route du vin en Roussillon
-La route du vin en Roussillon parcourt les principaux villages et villes viticoles de la région[4]. Du nord au sud, elle traverse les communes suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Route_du_vin_en_Roussillon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Route_du_vin_en_Roussillon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Parcours</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Route du vin en Roussillon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La route du vin en Roussillon parcourt les principaux villages et villes viticoles de la région. Du nord au sud, elle traverse les communes suivantes :
 Cabestany ;
 Saint-Nazaire ;
 Canet-en-Roussillon ;
@@ -569,8 +621,43 @@
 Alénya ;
 Saleilles ;
 Perpignan.
-Route du vin en Albères
-La route du vin en Albères parcourt les principaux villages et villes viticoles de la région[3]. Du nord au sud, elle traverse les communes suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Route_du_vin_en_Roussillon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Route_du_vin_en_Roussillon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Parcours</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Route du vin en Albères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La route du vin en Albères parcourt les principaux villages et villes viticoles de la région. Du nord au sud, elle traverse les communes suivantes :
 Cerbère ;
 Banyuls-sur-Mer ;
 Port-Vendres ;
